--- a/Working status.xlsx
+++ b/Working status.xlsx
@@ -23,8 +23,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>nhannv-pc</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhannv-pc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+List table
+exams
+questions
+question type
+users
+question_exam
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>20/12/2015</t>
   </si>
@@ -33,13 +73,37 @@
   </si>
   <si>
     <t>Init sercurity Plugin</t>
+  </si>
+  <si>
+    <t>Create database</t>
+  </si>
+  <si>
+    <t>Create register module of anonymous</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Form add question for teacher</t>
+  </si>
+  <si>
+    <t>form login</t>
+  </si>
+  <si>
+    <t>forward when register and login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> security for area and permission</t>
+  </si>
+  <si>
+    <t>form add exam/ question/ question type ...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,16 +111,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,12 +165,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
@@ -349,34 +484,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="3">
+        <v>42375</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Working status.xlsx
+++ b/Working status.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>20/12/2015</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>form add exam/ question/ question type ...</t>
+  </si>
+  <si>
+    <t>blog: flash message</t>
+  </si>
+  <si>
+    <t>update register module</t>
+  </si>
+  <si>
+    <t>redirect module</t>
+  </si>
+  <si>
+    <t>update database model</t>
+  </si>
+  <si>
+    <t>using mysql workbench to design</t>
+  </si>
+  <si>
+    <t>note go và cập nhật tự động khác với view từ data có sẵn</t>
   </si>
 </sst>
 </file>
@@ -131,7 +149,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +228,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,30 +513,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>42375</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>42522</v>
+      </c>
+      <c r="C1" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -526,18 +556,21 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -555,18 +588,21 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -584,14 +620,17 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -609,14 +648,15 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -634,14 +674,15 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -659,8 +700,9 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -682,8 +724,9 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -705,12 +748,15 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -728,12 +774,15 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -751,8 +800,9 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -774,8 +824,9 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -797,6 +848,12 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
